--- a/cea/databases/CH/assemblies/SUPPLY_NEW.xlsx
+++ b/cea/databases/CH/assemblies/SUPPLY_NEW.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathiasniffeler/Documents/CEA_Testing/ optimisation_test/Test1_SG/inputs/technology/assemblies/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nimathia\Documents\CEA_Testing\Keppel_Mediapolis_Biopolis\1stOptimisationTest\inputs\technology\assemblies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CC4DB3-21AC-4541-802F-F1D590AC44EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F3E79FB-5FFB-4F8B-8496-1D26496157B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9360" yWindow="500" windowWidth="29040" windowHeight="15840" tabRatio="993" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9360" yWindow="500" windowWidth="29040" windowHeight="15840" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HEATING" sheetId="22" r:id="rId1"/>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="84">
   <si>
     <t>Description</t>
   </si>
@@ -311,9 +311,6 @@
   </si>
   <si>
     <t>secondary_components</t>
-  </si>
-  <si>
-    <t>tertiary_cmponents</t>
   </si>
   <si>
     <t>-</t>
@@ -970,25 +967,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="92.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="20.83203125" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" customWidth="1"/>
-    <col min="13" max="13" width="51.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="92.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="20.81640625" customWidth="1"/>
+    <col min="6" max="6" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6328125" customWidth="1"/>
+    <col min="11" max="11" width="12.6328125" customWidth="1"/>
+    <col min="13" max="13" width="51.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1002,7 +999,7 @@
         <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>22</v>
@@ -1029,7 +1026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
@@ -1037,13 +1034,13 @@
         <v>37</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>3</v>
@@ -1070,7 +1067,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
@@ -1078,13 +1075,13 @@
         <v>36</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>6</v>
@@ -1111,7 +1108,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>13</v>
       </c>
@@ -1119,13 +1116,13 @@
         <v>38</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>7</v>
@@ -1152,7 +1149,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>14</v>
       </c>
@@ -1160,13 +1157,13 @@
         <v>39</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>4</v>
@@ -1193,7 +1190,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>15</v>
       </c>
@@ -1201,13 +1198,13 @@
         <v>40</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>5</v>
@@ -1234,7 +1231,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>16</v>
       </c>
@@ -1242,13 +1239,13 @@
         <v>41</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>8</v>
@@ -1275,7 +1272,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>17</v>
       </c>
@@ -1283,13 +1280,13 @@
         <v>42</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>5</v>
@@ -1316,7 +1313,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>26</v>
       </c>
@@ -1324,13 +1321,13 @@
         <v>43</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>5</v>
@@ -1357,7 +1354,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>18</v>
       </c>
@@ -1365,13 +1362,13 @@
         <v>44</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>5</v>
@@ -1398,7 +1395,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>27</v>
       </c>
@@ -1406,13 +1403,13 @@
         <v>45</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>4</v>
@@ -1439,7 +1436,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>28</v>
       </c>
@@ -1447,13 +1444,13 @@
         <v>46</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>5</v>
@@ -1480,7 +1477,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>29</v>
       </c>
@@ -1488,13 +1485,13 @@
         <v>47</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>5</v>
@@ -1535,20 +1532,20 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="92.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" customWidth="1"/>
-    <col min="10" max="10" width="51.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="92.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6328125" customWidth="1"/>
+    <col min="8" max="8" width="12.6328125" customWidth="1"/>
+    <col min="10" max="10" width="51.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1580,7 +1577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
@@ -1612,7 +1609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
@@ -1644,7 +1641,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>13</v>
       </c>
@@ -1676,7 +1673,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>14</v>
       </c>
@@ -1708,7 +1705,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>15</v>
       </c>
@@ -1740,7 +1737,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>16</v>
       </c>
@@ -1772,7 +1769,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>17</v>
       </c>
@@ -1804,7 +1801,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>26</v>
       </c>
@@ -1836,7 +1833,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>18</v>
       </c>
@@ -1868,7 +1865,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>27</v>
       </c>
@@ -1900,7 +1897,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>28</v>
       </c>
@@ -1932,7 +1929,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>29</v>
       </c>
@@ -1974,25 +1971,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="92.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="21.1640625" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" customWidth="1"/>
-    <col min="14" max="14" width="51.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="92.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="21.1796875" customWidth="1"/>
+    <col min="7" max="7" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.6328125" customWidth="1"/>
+    <col min="12" max="12" width="12.6328125" customWidth="1"/>
+    <col min="14" max="14" width="51.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2006,7 +2003,7 @@
         <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>68</v>
@@ -2036,7 +2033,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
@@ -2044,13 +2041,13 @@
         <v>60</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>3</v>
@@ -2080,7 +2077,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>26</v>
       </c>
@@ -2088,13 +2085,13 @@
         <v>61</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>69</v>
@@ -2124,7 +2121,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>18</v>
       </c>
@@ -2132,13 +2129,13 @@
         <v>62</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>69</v>
@@ -2168,7 +2165,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>30</v>
       </c>
@@ -2176,13 +2173,13 @@
         <v>63</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>69</v>
@@ -2212,7 +2209,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>31</v>
       </c>
@@ -2220,13 +2217,13 @@
         <v>64</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>69</v>
@@ -2269,20 +2266,20 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="92.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" customWidth="1"/>
-    <col min="10" max="10" width="51.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="92.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6328125" customWidth="1"/>
+    <col min="8" max="8" width="12.6328125" customWidth="1"/>
+    <col min="10" max="10" width="51.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2314,7 +2311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
@@ -2346,7 +2343,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>20</v>
       </c>

--- a/cea/databases/CH/assemblies/SUPPLY_NEW.xlsx
+++ b/cea/databases/CH/assemblies/SUPPLY_NEW.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nimathia\Documents\CEA_Testing\Keppel_Mediapolis_Biopolis\1stOptimisationTest\inputs\technology\assemblies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinmo/Documents/GitHub/CityEnergyAnalyst/cea/databases/CH/assemblies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F3E79FB-5FFB-4F8B-8496-1D26496157B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08C1C08-8731-034F-9D27-D78325E92239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9360" yWindow="500" windowWidth="29040" windowHeight="15840" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HEATING" sheetId="22" r:id="rId1"/>
@@ -22,7 +22,20 @@
     <definedName name="__xlfn_AGGREGATE">#N/A</definedName>
     <definedName name="__xlfn_STDEV_S">#N/A</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -38,7 +51,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -47,12 +60,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-All values + 15% of vertailverluste not included in th original factors. In order to trasnform from useful to final energy</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>All values + 15% of vertailverluste not included in th original factors. In order to trasnform from useful to final energy</t>
         </r>
       </text>
     </comment>
@@ -357,7 +379,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -413,6 +435,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -493,7 +528,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -507,20 +542,19 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -967,25 +1001,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="92.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="20.81640625" customWidth="1"/>
-    <col min="6" max="6" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6328125" customWidth="1"/>
-    <col min="11" max="11" width="12.6328125" customWidth="1"/>
-    <col min="13" max="13" width="51.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="13" max="13" width="51.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1026,20 +1062,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="11" t="s">
+      <c r="C2" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>72</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -1054,33 +1090,33 @@
       <c r="I2" s="4">
         <v>0</v>
       </c>
-      <c r="J2" s="10">
-        <v>20</v>
-      </c>
-      <c r="K2" s="10">
-        <v>1</v>
-      </c>
-      <c r="L2" s="10">
+      <c r="J2" s="9">
+        <v>20</v>
+      </c>
+      <c r="K2" s="9">
+        <v>1</v>
+      </c>
+      <c r="L2" s="9">
         <v>5</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="11" t="s">
+      <c r="D3" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>72</v>
       </c>
       <c r="F3" s="5" t="s">
@@ -1095,33 +1131,33 @@
       <c r="I3" s="6">
         <v>493</v>
       </c>
-      <c r="J3" s="10">
-        <v>20</v>
-      </c>
-      <c r="K3" s="10">
-        <v>1</v>
-      </c>
-      <c r="L3" s="10">
-        <v>5</v>
-      </c>
-      <c r="M3" s="9" t="s">
+      <c r="J3" s="9">
+        <v>20</v>
+      </c>
+      <c r="K3" s="9">
+        <v>1</v>
+      </c>
+      <c r="L3" s="9">
+        <v>5</v>
+      </c>
+      <c r="M3" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" s="11" t="s">
+      <c r="D4" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>72</v>
       </c>
       <c r="F4" s="5" t="s">
@@ -1136,33 +1172,33 @@
       <c r="I4" s="6">
         <v>367</v>
       </c>
-      <c r="J4" s="10">
-        <v>20</v>
-      </c>
-      <c r="K4" s="10">
-        <v>1</v>
-      </c>
-      <c r="L4" s="10">
-        <v>5</v>
-      </c>
-      <c r="M4" s="9" t="s">
+      <c r="J4" s="9">
+        <v>20</v>
+      </c>
+      <c r="K4" s="9">
+        <v>1</v>
+      </c>
+      <c r="L4" s="9">
+        <v>5</v>
+      </c>
+      <c r="M4" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" s="11" t="s">
+      <c r="D5" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>72</v>
       </c>
       <c r="F5" s="5" t="s">
@@ -1177,33 +1213,33 @@
       <c r="I5" s="6">
         <v>645</v>
       </c>
-      <c r="J5" s="10">
-        <v>20</v>
-      </c>
-      <c r="K5" s="10">
-        <v>1</v>
-      </c>
-      <c r="L5" s="10">
-        <v>5</v>
-      </c>
-      <c r="M5" s="9" t="s">
+      <c r="J5" s="9">
+        <v>20</v>
+      </c>
+      <c r="K5" s="9">
+        <v>1</v>
+      </c>
+      <c r="L5" s="9">
+        <v>5</v>
+      </c>
+      <c r="M5" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="11" t="s">
+      <c r="D6" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>72</v>
       </c>
       <c r="F6" s="3" t="s">
@@ -1218,33 +1254,33 @@
       <c r="I6" s="6">
         <v>200</v>
       </c>
-      <c r="J6" s="10">
-        <v>20</v>
-      </c>
-      <c r="K6" s="10">
-        <v>1</v>
-      </c>
-      <c r="L6" s="10">
+      <c r="J6" s="9">
+        <v>20</v>
+      </c>
+      <c r="K6" s="9">
+        <v>1</v>
+      </c>
+      <c r="L6" s="9">
         <v>5</v>
       </c>
       <c r="M6" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="11" t="s">
+      <c r="D7" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>72</v>
       </c>
       <c r="F7" s="5" t="s">
@@ -1259,33 +1295,33 @@
       <c r="I7" s="6">
         <v>200</v>
       </c>
-      <c r="J7" s="10">
-        <v>20</v>
-      </c>
-      <c r="K7" s="10">
-        <v>1</v>
-      </c>
-      <c r="L7" s="10">
+      <c r="J7" s="9">
+        <v>20</v>
+      </c>
+      <c r="K7" s="9">
+        <v>1</v>
+      </c>
+      <c r="L7" s="9">
         <v>5</v>
       </c>
       <c r="M7" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E8" s="11" t="s">
+      <c r="D8" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>72</v>
       </c>
       <c r="F8" s="3" t="s">
@@ -1300,33 +1336,33 @@
       <c r="I8" s="6">
         <v>200</v>
       </c>
-      <c r="J8" s="10">
-        <v>20</v>
-      </c>
-      <c r="K8" s="10">
-        <v>1</v>
-      </c>
-      <c r="L8" s="10">
+      <c r="J8" s="9">
+        <v>20</v>
+      </c>
+      <c r="K8" s="9">
+        <v>1</v>
+      </c>
+      <c r="L8" s="9">
         <v>5</v>
       </c>
       <c r="M8" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="11" t="s">
+      <c r="D9" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>72</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -1341,33 +1377,33 @@
       <c r="I9" s="6">
         <v>200</v>
       </c>
-      <c r="J9" s="10">
-        <v>20</v>
-      </c>
-      <c r="K9" s="10">
-        <v>1</v>
-      </c>
-      <c r="L9" s="10">
+      <c r="J9" s="9">
+        <v>20</v>
+      </c>
+      <c r="K9" s="9">
+        <v>1</v>
+      </c>
+      <c r="L9" s="9">
         <v>5</v>
       </c>
       <c r="M9" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" s="11" t="s">
+      <c r="D10" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>72</v>
       </c>
       <c r="F10" s="3" t="s">
@@ -1382,33 +1418,33 @@
       <c r="I10" s="6">
         <v>200</v>
       </c>
-      <c r="J10" s="10">
-        <v>20</v>
-      </c>
-      <c r="K10" s="10">
-        <v>1</v>
-      </c>
-      <c r="L10" s="10">
+      <c r="J10" s="9">
+        <v>20</v>
+      </c>
+      <c r="K10" s="9">
+        <v>1</v>
+      </c>
+      <c r="L10" s="9">
         <v>5</v>
       </c>
       <c r="M10" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="11" t="s">
+      <c r="D11" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>72</v>
       </c>
       <c r="F11" s="2" t="s">
@@ -1423,33 +1459,33 @@
       <c r="I11" s="6">
         <v>100</v>
       </c>
-      <c r="J11" s="10">
-        <v>20</v>
-      </c>
-      <c r="K11" s="10">
-        <v>1</v>
-      </c>
-      <c r="L11" s="10">
+      <c r="J11" s="9">
+        <v>20</v>
+      </c>
+      <c r="K11" s="9">
+        <v>1</v>
+      </c>
+      <c r="L11" s="9">
         <v>5</v>
       </c>
       <c r="M11" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="11" t="s">
+      <c r="D12" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>72</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -1464,33 +1500,33 @@
       <c r="I12" s="6">
         <v>100</v>
       </c>
-      <c r="J12" s="10">
-        <v>20</v>
-      </c>
-      <c r="K12" s="10">
-        <v>1</v>
-      </c>
-      <c r="L12" s="10">
+      <c r="J12" s="9">
+        <v>20</v>
+      </c>
+      <c r="K12" s="9">
+        <v>1</v>
+      </c>
+      <c r="L12" s="9">
         <v>5</v>
       </c>
       <c r="M12" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" s="11" t="s">
+      <c r="D13" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>72</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -1505,13 +1541,13 @@
       <c r="I13" s="6">
         <v>100</v>
       </c>
-      <c r="J13" s="10">
-        <v>20</v>
-      </c>
-      <c r="K13" s="10">
-        <v>1</v>
-      </c>
-      <c r="L13" s="10">
+      <c r="J13" s="9">
+        <v>20</v>
+      </c>
+      <c r="K13" s="9">
+        <v>1</v>
+      </c>
+      <c r="L13" s="9">
         <v>5</v>
       </c>
       <c r="M13" s="5" t="s">
@@ -1520,6 +1556,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -1529,23 +1566,23 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="92.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6328125" customWidth="1"/>
-    <col min="8" max="8" width="12.6328125" customWidth="1"/>
-    <col min="10" max="10" width="51.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
+    <col min="10" max="10" width="51.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1577,11 +1614,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>49</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1596,24 +1633,24 @@
       <c r="F2" s="4">
         <v>0</v>
       </c>
-      <c r="G2" s="10">
-        <v>20</v>
-      </c>
-      <c r="H2" s="10">
-        <v>1</v>
-      </c>
-      <c r="I2" s="10">
+      <c r="G2" s="9">
+        <v>20</v>
+      </c>
+      <c r="H2" s="9">
+        <v>1</v>
+      </c>
+      <c r="I2" s="9">
         <v>5</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -1628,24 +1665,24 @@
       <c r="F3" s="6">
         <v>493</v>
       </c>
-      <c r="G3" s="10">
-        <v>20</v>
-      </c>
-      <c r="H3" s="10">
-        <v>1</v>
-      </c>
-      <c r="I3" s="10">
-        <v>5</v>
-      </c>
-      <c r="J3" s="9" t="s">
+      <c r="G3" s="9">
+        <v>20</v>
+      </c>
+      <c r="H3" s="9">
+        <v>1</v>
+      </c>
+      <c r="I3" s="9">
+        <v>5</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -1660,24 +1697,24 @@
       <c r="F4" s="6">
         <v>367</v>
       </c>
-      <c r="G4" s="10">
-        <v>20</v>
-      </c>
-      <c r="H4" s="10">
-        <v>1</v>
-      </c>
-      <c r="I4" s="10">
-        <v>5</v>
-      </c>
-      <c r="J4" s="9" t="s">
+      <c r="G4" s="9">
+        <v>20</v>
+      </c>
+      <c r="H4" s="9">
+        <v>1</v>
+      </c>
+      <c r="I4" s="9">
+        <v>5</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>51</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -1692,24 +1729,24 @@
       <c r="F5" s="6">
         <v>645</v>
       </c>
-      <c r="G5" s="10">
-        <v>20</v>
-      </c>
-      <c r="H5" s="10">
-        <v>1</v>
-      </c>
-      <c r="I5" s="10">
-        <v>5</v>
-      </c>
-      <c r="J5" s="9" t="s">
+      <c r="G5" s="9">
+        <v>20</v>
+      </c>
+      <c r="H5" s="9">
+        <v>1</v>
+      </c>
+      <c r="I5" s="9">
+        <v>5</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>52</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -1721,27 +1758,27 @@
       <c r="E6" s="6">
         <v>0.9</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="6">
         <v>167</v>
       </c>
-      <c r="G6" s="12">
-        <v>5</v>
-      </c>
-      <c r="H6" s="10">
-        <v>1</v>
-      </c>
-      <c r="I6" s="10">
-        <v>5</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="G6" s="11">
+        <v>5</v>
+      </c>
+      <c r="H6" s="9">
+        <v>1</v>
+      </c>
+      <c r="I6" s="9">
+        <v>5</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>53</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -1756,24 +1793,24 @@
       <c r="F7" s="6">
         <v>200</v>
       </c>
-      <c r="G7" s="10">
-        <v>20</v>
-      </c>
-      <c r="H7" s="10">
-        <v>1</v>
-      </c>
-      <c r="I7" s="10">
+      <c r="G7" s="9">
+        <v>20</v>
+      </c>
+      <c r="H7" s="9">
+        <v>1</v>
+      </c>
+      <c r="I7" s="9">
         <v>5</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>54</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -1788,24 +1825,24 @@
       <c r="F8" s="6">
         <v>200</v>
       </c>
-      <c r="G8" s="10">
-        <v>20</v>
-      </c>
-      <c r="H8" s="10">
-        <v>1</v>
-      </c>
-      <c r="I8" s="10">
+      <c r="G8" s="9">
+        <v>20</v>
+      </c>
+      <c r="H8" s="9">
+        <v>1</v>
+      </c>
+      <c r="I8" s="9">
         <v>5</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>55</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -1820,24 +1857,24 @@
       <c r="F9" s="6">
         <v>200</v>
       </c>
-      <c r="G9" s="10">
-        <v>20</v>
-      </c>
-      <c r="H9" s="10">
-        <v>1</v>
-      </c>
-      <c r="I9" s="10">
+      <c r="G9" s="9">
+        <v>20</v>
+      </c>
+      <c r="H9" s="9">
+        <v>1</v>
+      </c>
+      <c r="I9" s="9">
         <v>5</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -1852,24 +1889,24 @@
       <c r="F10" s="6">
         <v>200</v>
       </c>
-      <c r="G10" s="10">
-        <v>20</v>
-      </c>
-      <c r="H10" s="10">
-        <v>1</v>
-      </c>
-      <c r="I10" s="10">
+      <c r="G10" s="9">
+        <v>20</v>
+      </c>
+      <c r="H10" s="9">
+        <v>1</v>
+      </c>
+      <c r="I10" s="9">
         <v>5</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>57</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1884,24 +1921,24 @@
       <c r="F11" s="6">
         <v>100</v>
       </c>
-      <c r="G11" s="10">
-        <v>20</v>
-      </c>
-      <c r="H11" s="10">
-        <v>1</v>
-      </c>
-      <c r="I11" s="10">
+      <c r="G11" s="9">
+        <v>20</v>
+      </c>
+      <c r="H11" s="9">
+        <v>1</v>
+      </c>
+      <c r="I11" s="9">
         <v>5</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>58</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1916,24 +1953,24 @@
       <c r="F12" s="6">
         <v>100</v>
       </c>
-      <c r="G12" s="10">
-        <v>20</v>
-      </c>
-      <c r="H12" s="10">
-        <v>1</v>
-      </c>
-      <c r="I12" s="10">
+      <c r="G12" s="9">
+        <v>20</v>
+      </c>
+      <c r="H12" s="9">
+        <v>1</v>
+      </c>
+      <c r="I12" s="9">
         <v>5</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>59</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1948,13 +1985,13 @@
       <c r="F13" s="6">
         <v>100</v>
       </c>
-      <c r="G13" s="10">
-        <v>20</v>
-      </c>
-      <c r="H13" s="10">
-        <v>1</v>
-      </c>
-      <c r="I13" s="10">
+      <c r="G13" s="9">
+        <v>20</v>
+      </c>
+      <c r="H13" s="9">
+        <v>1</v>
+      </c>
+      <c r="I13" s="9">
         <v>5</v>
       </c>
       <c r="J13" s="5" t="s">
@@ -1971,25 +2008,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="92.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="21.1796875" customWidth="1"/>
-    <col min="7" max="7" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.6328125" customWidth="1"/>
-    <col min="12" max="12" width="12.6328125" customWidth="1"/>
-    <col min="14" max="14" width="51.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="21.1640625" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" customWidth="1"/>
+    <col min="14" max="14" width="51.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2033,23 +2070,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F2" s="11" t="s">
+      <c r="C2" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="3" t="s">
@@ -2064,36 +2101,36 @@
       <c r="J2" s="4">
         <v>0</v>
       </c>
-      <c r="K2" s="10">
-        <v>20</v>
-      </c>
-      <c r="L2" s="10">
-        <v>1</v>
-      </c>
-      <c r="M2" s="10">
+      <c r="K2" s="9">
+        <v>20</v>
+      </c>
+      <c r="L2" s="9">
+        <v>1</v>
+      </c>
+      <c r="M2" s="9">
         <v>5</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="11" t="s">
+      <c r="D3" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>69</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -2108,36 +2145,36 @@
       <c r="J3" s="6">
         <v>200</v>
       </c>
-      <c r="K3" s="10">
-        <v>20</v>
-      </c>
-      <c r="L3" s="10">
-        <v>1</v>
-      </c>
-      <c r="M3" s="10">
+      <c r="K3" s="9">
+        <v>20</v>
+      </c>
+      <c r="L3" s="9">
+        <v>1</v>
+      </c>
+      <c r="M3" s="9">
         <v>5</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" s="11" t="s">
+      <c r="D4" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>69</v>
       </c>
       <c r="G4" s="3" t="s">
@@ -2152,36 +2189,36 @@
       <c r="J4" s="6">
         <v>200</v>
       </c>
-      <c r="K4" s="10">
-        <v>20</v>
-      </c>
-      <c r="L4" s="10">
-        <v>1</v>
-      </c>
-      <c r="M4" s="10">
+      <c r="K4" s="9">
+        <v>20</v>
+      </c>
+      <c r="L4" s="9">
+        <v>1</v>
+      </c>
+      <c r="M4" s="9">
         <v>5</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" s="11" t="s">
+      <c r="D5" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="10" t="s">
         <v>69</v>
       </c>
       <c r="G5" s="3" t="s">
@@ -2196,36 +2233,36 @@
       <c r="J5" s="6">
         <v>200</v>
       </c>
-      <c r="K5" s="10">
-        <v>20</v>
-      </c>
-      <c r="L5" s="10">
-        <v>1</v>
-      </c>
-      <c r="M5" s="10">
+      <c r="K5" s="9">
+        <v>20</v>
+      </c>
+      <c r="L5" s="9">
+        <v>1</v>
+      </c>
+      <c r="M5" s="9">
         <v>5</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="11" t="s">
+      <c r="D6" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="10" t="s">
         <v>69</v>
       </c>
       <c r="G6" s="5" t="s">
@@ -2240,13 +2277,13 @@
       <c r="J6" s="6">
         <v>200</v>
       </c>
-      <c r="K6" s="10">
-        <v>20</v>
-      </c>
-      <c r="L6" s="10">
-        <v>1</v>
-      </c>
-      <c r="M6" s="10">
+      <c r="K6" s="9">
+        <v>20</v>
+      </c>
+      <c r="L6" s="9">
+        <v>1</v>
+      </c>
+      <c r="M6" s="9">
         <v>5</v>
       </c>
       <c r="N6" s="5" t="s">
@@ -2262,24 +2299,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="92.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6328125" customWidth="1"/>
-    <col min="8" max="8" width="12.6328125" customWidth="1"/>
-    <col min="10" max="10" width="51.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
+    <col min="10" max="10" width="51.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2311,11 +2348,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>66</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -2330,24 +2367,24 @@
       <c r="F2" s="4">
         <v>0</v>
       </c>
-      <c r="G2" s="10">
-        <v>20</v>
-      </c>
-      <c r="H2" s="10">
-        <v>1</v>
-      </c>
-      <c r="I2" s="10">
+      <c r="G2" s="9">
+        <v>20</v>
+      </c>
+      <c r="H2" s="9">
+        <v>1</v>
+      </c>
+      <c r="I2" s="9">
         <v>5</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>65</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -2362,13 +2399,13 @@
       <c r="F3" s="6">
         <v>1</v>
       </c>
-      <c r="G3" s="10">
-        <v>20</v>
-      </c>
-      <c r="H3" s="10">
-        <v>1</v>
-      </c>
-      <c r="I3" s="10">
+      <c r="G3" s="9">
+        <v>20</v>
+      </c>
+      <c r="H3" s="9">
+        <v>1</v>
+      </c>
+      <c r="I3" s="9">
         <v>5</v>
       </c>
       <c r="J3" s="5" t="s">
